--- a/test_請求管理/已完成/test_請求管理_繰越一覧and口座利用一覧.xlsx
+++ b/test_請求管理/已完成/test_請求管理_繰越一覧and口座利用一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="47" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6702" uniqueCount="1174">
   <si>
     <t>URL:</t>
   </si>
@@ -6214,8 +6214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM219"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7824,9 +7824,7 @@
       <c r="BW63" s="23"/>
     </row>
     <row r="64" spans="1:75" ht="14.25">
-      <c r="A64" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="A64" s="24"/>
       <c r="B64" s="30" t="s">
         <v>806</v>
       </c>
@@ -25226,7 +25224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
